--- a/docs/team-3-dev-status.xlsx
+++ b/docs/team-3-dev-status.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
